--- a/act_specsheet.xlsx
+++ b/act_specsheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="142">
   <si>
     <t>Flow Control Commune Pvt Ltd</t>
   </si>
@@ -193,6 +193,9 @@
     <t>Values</t>
   </si>
   <si>
+    <t>FCC</t>
+  </si>
+  <si>
     <t>CC</t>
   </si>
   <si>
@@ -331,82 +334,97 @@
     <t>Actuator Sizing Calculation Sheet</t>
   </si>
   <si>
-    <t>Customer_1</t>
-  </si>
-  <si>
-    <t>502</t>
+    <t>Customer_2</t>
+  </si>
+  <si>
+    <t>Bid On</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>10+Globe 150 - 600#</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Globe</t>
+  </si>
+  <si>
+    <t>ACT-1</t>
+  </si>
+  <si>
+    <t>graphite</t>
+  </si>
+  <si>
+    <t>Over</t>
+  </si>
+  <si>
+    <t>inch</t>
+  </si>
+  <si>
+    <t>3.4375</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>inch^2</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>globe</t>
-  </si>
-  <si>
-    <t>Contoured</t>
-  </si>
-  <si>
-    <t>unbalanced</t>
-  </si>
-  <si>
-    <t>under</t>
-  </si>
-  <si>
-    <t>inch</t>
-  </si>
-  <si>
-    <t>4.375</t>
-  </si>
-  <si>
-    <t>3.14</t>
-  </si>
-  <si>
-    <t>inch^2</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>bar</t>
   </si>
   <si>
-    <t>16.746666666666666</t>
+    <t>0.7849999999999999</t>
   </si>
   <si>
     <t>m</t>
   </si>
   <si>
-    <t>1714</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>12000</t>
+    <t>AFO</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1.125</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>2240</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>3150</t>
   </si>
   <si>
     <t>e</t>
@@ -415,13 +433,16 @@
     <t>60.0</t>
   </si>
   <si>
-    <t>0.25</t>
+    <t>0.714</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t>502.65</t>
+    <t>3390</t>
+  </si>
+  <si>
+    <t>94.25</t>
   </si>
 </sst>
 </file>
@@ -456,18 +477,18 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -543,17 +564,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -937,15 +958,15 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -956,15 +977,15 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -978,10 +999,10 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -995,10 +1016,10 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1012,7 +1033,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>9</v>
@@ -1029,43 +1050,51 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>58</v>
+      <c r="E13" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1073,22 +1102,22 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>110</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1096,22 +1125,22 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>111</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1119,24 +1148,24 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>112</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1144,176 +1173,176 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>113</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>115</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>65</v>
+      <c r="E20" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>66</v>
+        <v>118</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>119</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>68</v>
+      <c r="E23" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1321,22 +1350,22 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>122</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1344,249 +1373,247 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>70</v>
+        <v>123</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>71</v>
+      <c r="E26" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>72</v>
+        <v>16</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>73</v>
+      <c r="E28" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>74</v>
+        <v>123</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="E35" s="9"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6" t="s">
-        <v>82</v>
+      <c r="B39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="7"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1594,10 +1621,10 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="7"/>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="7"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1605,10 +1632,10 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="7"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="7"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1616,10 +1643,10 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="7"/>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="7"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1627,10 +1654,10 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="7"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="7"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1638,10 +1665,10 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="7"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="7"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1649,10 +1676,10 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="7"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="7"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1660,10 +1687,10 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="7"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="7"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1671,10 +1698,10 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="7"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="7"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1682,16 +1709,16 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="7"/>
+      <c r="I48" s="8"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>32</v>
       </c>
-      <c r="H62" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I62" s="9"/>
+      <c r="H62" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I62" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="53">
